--- a/biology/Zoologie/Calodactylodes_aureus/Calodactylodes_aureus.xlsx
+++ b/biology/Zoologie/Calodactylodes_aureus/Calodactylodes_aureus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calodactylodes aureus est une espèce de geckos de la famille des Gekkonidae[1]. Le nom gecko indien doré est une traduction du nom anglais Indian golden gecko.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calodactylodes aureus est une espèce de geckos de la famille des Gekkonidae. Le nom gecko indien doré est une traduction du nom anglais Indian golden gecko.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Inde[1]. Elle se rencontre au Tamil Nadu, en Andhra Pradesh et en Orissa dans les Ghâts orientaux et dans le sud des Ghâts occidentaux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Inde. Elle se rencontre au Tamil Nadu, en Andhra Pradesh et en Orissa dans les Ghâts orientaux et dans le sud des Ghâts occidentaux.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko de taille moyenne, pouvant atteindre 16 cm, dont près de la moitié pour la queue. Il a des écailles protubérantes sur le dos, une tête relativement large par rapport au corps, et possède des griffes rétractables aux doigts.
 La couleur de base est le brun-beige, avec de petits points et lignes plus sombres.
 Il est difficile de distinguer les mâles des femelles. Les mâles sont par exemple dépourvus de pores pré-anaux ou fémoraux comme de nombreuses autres espèces.
-Cette espèce a été retrouvé en 1986[2].
+Cette espèce a été retrouvé en 1986.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Beddome, 1870 : Descriptions of some new lizards from the Madras Presidency. The Madras monthly journal of medical science, vol. 1, p. 30-35.</t>
         </is>
